--- a/document/StudyNotes/SqlStudyNotes/SqlDataTableNotes/產品管理表/產品資料表設計.xlsx
+++ b/document/StudyNotes/SqlStudyNotes/SqlDataTableNotes/產品管理表/產品資料表設計.xlsx
@@ -151,10 +151,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -252,6 +248,10 @@
   </si>
   <si>
     <t>存img?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +759,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -848,60 +848,60 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -944,7 +944,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -956,12 +956,12 @@
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -994,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -1006,13 +1006,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -1022,13 +1022,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -1065,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
